--- a/数据整理/stocks/其他/US5949181045-微软.xlsx
+++ b/数据整理/stocks/其他/US5949181045-微软.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US5949181045-微软.xlsx
+++ b/数据整理/stocks/其他/US5949181045-微软.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US5949181045-微软.xlsx
+++ b/数据整理/stocks/其他/US5949181045-微软.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US5949181045-微软.xlsx
+++ b/数据整理/stocks/其他/US5949181045-微软.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0162</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.99</v>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.45</v>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.48</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US5949181045-微软.xlsx
+++ b/数据整理/stocks/其他/US5949181045-微软.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.08</v>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93</v>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.99</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.45</v>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +1927,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.48</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US5949181045-微软.xlsx
+++ b/数据整理/stocks/其他/US5949181045-微软.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.97</v>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.08</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.93</v>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2125,14 +2212,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.99</v>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2141,14 +2250,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.45</v>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2157,13 +2288,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.48</v>
       </c>
     </row>
